--- a/biology/Médecine/Douleur_thoracique/Douleur_thoracique.xlsx
+++ b/biology/Médecine/Douleur_thoracique/Douleur_thoracique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La douleur thoracique  est un symptôme clinique, généralement associé à un trouble cardiaque mais pouvant être d’origine vasculaire (aortique), pulmonaire, digestive (œsophagienne), pariétale (musculaire), névralgique ou fonctionnelle. Comme toute douleur, elle peut être accompagnée d'un malaise vagal, voire d'une syncope.
@@ -519,7 +531,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Suivant sa localisation, on parle de douleurs :
 rétrosternales : derrière le sternum, c'est-à-dire au centre du thorax ;
@@ -554,15 +568,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Angine de poitrine
-Dans l'angine de poitrine, la douleur, dans les cas typiques, est décrite comme une oppression rétrosternale (au centre), constrictive (sensation d'étau), avec parfois une irradiation vers le bras gauche ou les mâchoires ou associée à une angoisse et sensation de mort imminente. Elle survient le plus souvent lors d'un effort et cesse à l'arrêt de ce dernier. Elle peut également être spontanée (sans circonstance déclenchante précise). Elle cesse en général après administration de trinitrine en quelques minutes.
+          <t>Angine de poitrine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'angine de poitrine, la douleur, dans les cas typiques, est décrite comme une oppression rétrosternale (au centre), constrictive (sensation d'étau), avec parfois une irradiation vers le bras gauche ou les mâchoires ou associée à une angoisse et sensation de mort imminente. Elle survient le plus souvent lors d'un effort et cesse à l'arrêt de ce dernier. Elle peut également être spontanée (sans circonstance déclenchante précise). Elle cesse en général après administration de trinitrine en quelques minutes.
 Si elle ne cesse pas au bout d'une dizaine de minutes, on doit craindre un infarctus du myocarde.
-Infarctus du myocarde
-L'infarctus du myocarde correspond à une occlusion aiguë d'une artère coronaire. C'est une urgence médicale nécessitant l'intervention rapide d'une équipe médicale afin de parvenir le plus rapidement possible à la réouverture de l'artère responsable. 
-Péricardite
-La douleur de la péricardite est typiquement prolongée pendant plusieurs heures, inhibant la respiration (c'est-à-dire augmentée lorsque le sujet respire profondément), parfois calmée par la position assise. Elle correspond à une inflammation du péricarde. L'origine peut être infectieuse (bactérienne, virale, tuberculeuse), néoplasique, métabolique.
-Autres
-Syndrome de Dressler
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Causes cardiaques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Infarctus du myocarde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infarctus du myocarde correspond à une occlusion aiguë d'une artère coronaire. C'est une urgence médicale nécessitant l'intervention rapide d'une équipe médicale afin de parvenir le plus rapidement possible à la réouverture de l'artère responsable. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes cardiaques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Péricardite</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La douleur de la péricardite est typiquement prolongée pendant plusieurs heures, inhibant la respiration (c'est-à-dire augmentée lorsque le sujet respire profondément), parfois calmée par la position assise. Elle correspond à une inflammation du péricarde. L'origine peut être infectieuse (bactérienne, virale, tuberculeuse), néoplasique, métabolique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes cardiaques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Syndrome de Dressler
 Myocardite
 Prolapsus de la valve mitrale
 Dans le cadre d'un trouble du rythme
@@ -571,65 +695,107 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Causes vasculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Embolie pulmonaire
-La douleur de l'embolie pulmonaire est inconstante et de description variée. Elle peut ou non s'associer à un essoufflement (dyspnée), une accélération de la fréquence cardiaque (tachycardie).
-Dissection aortique
-La dissection aortique est une pathologie rare, correspondant à une déchirure de l'aorte thoracique, aboutissement à un décollement de sa paroi et pouvant conduire à sa rupture. Il s'agit d'une urgence absolue nécessitant une prise en charge chirurgicale la plus rapide possible. La douleur est typiquement prolongée et migratrice (par exemple d'abord au milieu du thorax, puis allant sur un côté, puis devenant abdominale).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Embolie pulmonaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La douleur de l'embolie pulmonaire est inconstante et de description variée. Elle peut ou non s'associer à un essoufflement (dyspnée), une accélération de la fréquence cardiaque (tachycardie).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Causes vasculaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dissection aortique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissection aortique est une pathologie rare, correspondant à une déchirure de l'aorte thoracique, aboutissement à un décollement de sa paroi et pouvant conduire à sa rupture. Il s'agit d'une urgence absolue nécessitant une prise en charge chirurgicale la plus rapide possible. La douleur est typiquement prolongée et migratrice (par exemple d'abord au milieu du thorax, puis allant sur un côté, puis devenant abdominale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Causes pulmonaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La douleur est typiquement latéralisée, avec une composante respiratoire (variant avec cette dernière).
 Toute maladie pulmonaire aiguë peut provoquer une douleur : pneumopathie, épanchement pleural (gazeux : pneumothorax ; liquidien : pleurésie). Traumatismes et corps étrangers trachéo-bronchique.
@@ -637,31 +803,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Causes médiastinales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Tumeurs médiastinales
 Pneumomédiastin
@@ -669,31 +837,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Causes pariétales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Traumatisme
 Toute maladie de la paroi thoracique peut provoquer une douleur. La douleur peut être aiguë ou chronique, et comporte parfois un caractère pariétal : une pression sur une partie de la cage thoracique provoque et reproduit la douleur (ce qui n'est pas le cas pour les autres causes). Dans le cadre de pathologies :
@@ -705,77 +875,223 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Causes abdominales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Œsophage
-Rupture de l'œsophage
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Œsophage</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rupture de l'œsophage
 Reflux gastro-œsophagien : la douleur est, alors (survenant après les repas), déclenchée ou favorisée par la position allongée, réstrosternale ascendante, à type de brûlure, avec parfois sensation de régurgitations acides au fond de la gorge. Cette description est traduite par le terme pyrosis.
 Œsophagite
 Syndrome de Mallory-Weiss
 Achalasie
-Spasmes œsophagiens[1]
-Estomac
-Typiquement épigastrique, la douleur de l'ulcère gastrique peut parfois être décrite comme thoracique.
-Foie, vésicule biliaire
-Les coliques hépatiques peuvent occasionner des douleurs basithoraciques droites, avec parfois une irradiation dans l'épaule droite.
-Rate
-Certaines pathologies de la rate donnent des douleurs basi-thoraciques gauches, pouvant irradier dans l'épaule gauche.
+Spasmes œsophagiens</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Causes abdominales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Estomac</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typiquement épigastrique, la douleur de l'ulcère gastrique peut parfois être décrite comme thoracique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Causes abdominales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Foie, vésicule biliaire</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coliques hépatiques peuvent occasionner des douleurs basithoraciques droites, avec parfois une irradiation dans l'épaule droite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Causes abdominales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines pathologies de la rate donnent des douleurs basi-thoraciques gauches, pouvant irradier dans l'épaule gauche.
 À part, le point de côté, latéro et basi thoracique gauche, survenant au cours d'un effort et cédant à l'arrêt de ce dernier et correspondant à une congestion de la rate sans conséquence.
-Pancréas
-Même si la douleur est typiquement épigastrique, transfixiante, elle est décrite parfois comme rétrosternale basse.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Causes abdominales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pancréas</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Même si la douleur est typiquement épigastrique, transfixiante, elle est décrite parfois comme rétrosternale basse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douleur_thoracique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Causes psychiatriques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Anxiété
 Attaque de panique
